--- a/teaching/traditional_assets/database/data/singapore/singapore_drugs_biotechnology.xlsx
+++ b/teaching/traditional_assets/database/data/singapore/singapore_drugs_biotechnology.xlsx
@@ -591,31 +591,31 @@
         </is>
       </c>
       <c r="G2">
-        <v>-6.433333333333333</v>
+        <v>-67.36842105263158</v>
       </c>
       <c r="H2">
-        <v>-13.8</v>
+        <v>-121.0526315789474</v>
       </c>
       <c r="I2">
-        <v>-8.673420283771058</v>
+        <v>-94.73684210526315</v>
       </c>
       <c r="J2">
-        <v>-8.673420283771058</v>
+        <v>-94.73684210526315</v>
       </c>
       <c r="K2">
-        <v>-27.4</v>
+        <v>-43.1</v>
       </c>
       <c r="L2">
-        <v>-9.133333333333333</v>
+        <v>-226.8421052631579</v>
       </c>
       <c r="M2">
-        <v>1.75</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>0.03404669260700389</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>-0.06386861313868614</v>
+        <v>-0</v>
       </c>
       <c r="P2">
         <v>0</v>
@@ -627,79 +627,76 @@
         <v>-0</v>
       </c>
       <c r="S2">
-        <v>1.75</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>7.99</v>
+        <v>12.1</v>
       </c>
       <c r="V2">
-        <v>0.1554474708171206</v>
+        <v>0.1741007194244604</v>
       </c>
       <c r="W2">
-        <v>-0.6570743405275778</v>
+        <v>-3.265151515151516</v>
       </c>
       <c r="X2">
-        <v>0.1104560852373818</v>
+        <v>0.06522432232109117</v>
       </c>
       <c r="Y2">
-        <v>-0.7675304257649597</v>
+        <v>-3.330375837472607</v>
       </c>
       <c r="Z2">
-        <v>0.1739503116360632</v>
+        <v>0.009401286491835725</v>
       </c>
       <c r="AA2">
-        <v>-1.508744161312527</v>
+        <v>-0.8906481939633845</v>
       </c>
       <c r="AB2">
-        <v>0.0921120567415622</v>
+        <v>0.07073964088793465</v>
       </c>
       <c r="AC2">
-        <v>-1.60085621805409</v>
+        <v>-0.9613878348513191</v>
       </c>
       <c r="AD2">
-        <v>15</v>
+        <v>18.7</v>
       </c>
       <c r="AE2">
-        <v>0.5663042565658817</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>15.56630425656588</v>
+        <v>18.7</v>
       </c>
       <c r="AG2">
-        <v>7.576304256565882</v>
+        <v>6.6</v>
       </c>
       <c r="AH2">
-        <v>0.2324498033656926</v>
+        <v>0.2120181405895691</v>
       </c>
       <c r="AI2">
-        <v>0.5411297926118851</v>
+        <v>2.671428571428571</v>
       </c>
       <c r="AJ2">
-        <v>0.1284635304309087</v>
+        <v>0.08672798948751642</v>
       </c>
       <c r="AK2">
-        <v>0.3646608252847261</v>
+        <v>-1.294117647058824</v>
       </c>
       <c r="AL2">
-        <v>0.752</v>
+        <v>1.27</v>
       </c>
       <c r="AM2">
-        <v>0.587</v>
+        <v>1.254</v>
       </c>
       <c r="AN2">
-        <v>-0.5834986579530866</v>
+        <v>-1.044692737430168</v>
       </c>
       <c r="AO2">
-        <v>-35.1063829787234</v>
+        <v>-14.17322834645669</v>
       </c>
       <c r="AP2">
-        <v>-0.29471755773003</v>
+        <v>-0.3687150837988827</v>
       </c>
       <c r="AQ2">
-        <v>-44.97444633730835</v>
+        <v>-14.35406698564593</v>
       </c>
     </row>
     <row r="3">
@@ -710,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASLAN Pharmaceuticals Limited (GTSM:6497)</t>
+          <t>ASLAN Pharmaceuticals Limited (NasdaqGM:ASLN)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -719,31 +716,31 @@
         </is>
       </c>
       <c r="G3">
-        <v>-6.433333333333333</v>
+        <v>-67.36842105263158</v>
       </c>
       <c r="H3">
-        <v>-13.8</v>
+        <v>-121.0526315789474</v>
       </c>
       <c r="I3">
-        <v>-8.673420283771058</v>
+        <v>-94.73684210526315</v>
       </c>
       <c r="J3">
-        <v>-8.673420283771058</v>
+        <v>-94.73684210526315</v>
       </c>
       <c r="K3">
-        <v>-27.4</v>
+        <v>-43.1</v>
       </c>
       <c r="L3">
-        <v>-9.133333333333333</v>
+        <v>-226.8421052631579</v>
       </c>
       <c r="M3">
-        <v>1.75</v>
+        <v>-0</v>
       </c>
       <c r="N3">
-        <v>0.03404669260700389</v>
+        <v>-0</v>
       </c>
       <c r="O3">
-        <v>-0.06386861313868614</v>
+        <v>0</v>
       </c>
       <c r="P3">
         <v>-0</v>
@@ -755,79 +752,76 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>1.75</v>
-      </c>
-      <c r="T3">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U3">
-        <v>7.99</v>
+        <v>12.1</v>
       </c>
       <c r="V3">
-        <v>0.1554474708171206</v>
+        <v>0.1741007194244604</v>
       </c>
       <c r="W3">
-        <v>-0.6570743405275778</v>
+        <v>-3.265151515151516</v>
       </c>
       <c r="X3">
-        <v>0.1104560852373818</v>
+        <v>0.06522432232109117</v>
       </c>
       <c r="Y3">
-        <v>-0.7675304257649597</v>
+        <v>-3.330375837472607</v>
       </c>
       <c r="Z3">
-        <v>0.1739503116360632</v>
+        <v>0.009401286491835725</v>
       </c>
       <c r="AA3">
-        <v>-1.508744161312527</v>
+        <v>-0.8906481939633845</v>
       </c>
       <c r="AB3">
-        <v>0.0921120567415622</v>
+        <v>0.07073964088793465</v>
       </c>
       <c r="AC3">
-        <v>-1.60085621805409</v>
+        <v>-0.9613878348513191</v>
       </c>
       <c r="AD3">
-        <v>15</v>
+        <v>18.7</v>
       </c>
       <c r="AE3">
-        <v>0.5663042565658817</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>15.56630425656588</v>
+        <v>18.7</v>
       </c>
       <c r="AG3">
-        <v>7.576304256565882</v>
+        <v>6.6</v>
       </c>
       <c r="AH3">
-        <v>0.2324498033656926</v>
+        <v>0.2120181405895691</v>
       </c>
       <c r="AI3">
-        <v>0.5411297926118851</v>
+        <v>2.671428571428571</v>
       </c>
       <c r="AJ3">
-        <v>0.1284635304309087</v>
+        <v>0.08672798948751642</v>
       </c>
       <c r="AK3">
-        <v>0.3646608252847261</v>
+        <v>-1.294117647058824</v>
       </c>
       <c r="AL3">
-        <v>0.752</v>
+        <v>1.27</v>
       </c>
       <c r="AM3">
-        <v>0.587</v>
+        <v>1.254</v>
       </c>
       <c r="AN3">
-        <v>-0.5834986579530866</v>
+        <v>-1.044692737430168</v>
       </c>
       <c r="AO3">
-        <v>-35.1063829787234</v>
+        <v>-14.17322834645669</v>
       </c>
       <c r="AP3">
-        <v>-0.29471755773003</v>
+        <v>-0.3687150837988827</v>
       </c>
       <c r="AQ3">
-        <v>-44.97444633730835</v>
+        <v>-14.35406698564593</v>
       </c>
     </row>
   </sheetData>
